--- a/pidis/expdata/10028.xlsx
+++ b/pidis/expdata/10028.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jethier/Documents/fitpack/database/pdis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/pidis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6763B2F-C6F6-8C45-B18F-37F3EE29698C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23220" windowHeight="14840" tabRatio="500"/>
+    <workbookView xWindow="35460" yWindow="3100" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -50,9 +60,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>Aperp(stat)_u</t>
-  </si>
-  <si>
     <t>set*</t>
   </si>
   <si>
@@ -67,12 +74,15 @@
   <si>
     <t>SLAC(E155)</t>
   </si>
+  <si>
+    <t>stat_u</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -85,6 +95,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,10 +129,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -127,6 +143,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -394,19 +413,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,16 +449,16 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -451,11 +471,11 @@
       <c r="D2" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G2" s="2">
         <v>1.9E-2</v>
@@ -467,10 +487,10 @@
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -483,11 +503,11 @@
       <c r="D3" s="2">
         <v>1.25</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G3" s="2">
         <v>0.02</v>
@@ -499,10 +519,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -515,11 +535,11 @@
       <c r="D4" s="2">
         <v>1.35</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G4" s="2">
         <v>-4.2999999999999997E-2</v>
@@ -531,10 +551,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -547,11 +567,11 @@
       <c r="D5" s="2">
         <v>1.42</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G5" s="2">
         <v>-1.7000000000000001E-2</v>
@@ -563,10 +583,10 @@
         <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -579,11 +599,11 @@
       <c r="D6" s="2">
         <v>1.48</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>11</v>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G6" s="2">
         <v>-3.5000000000000003E-2</v>
@@ -595,10 +615,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -611,11 +631,11 @@
       <c r="D7" s="2">
         <v>1.56</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G7" s="2">
         <v>-2.9000000000000001E-2</v>
@@ -627,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -643,11 +663,11 @@
       <c r="D8" s="2">
         <v>1.65</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>11</v>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G8" s="2">
         <v>-4.8000000000000001E-2</v>
@@ -659,10 +679,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -675,11 +695,11 @@
       <c r="D9" s="2">
         <v>1.76</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>11</v>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G9" s="2">
         <v>2.1999999999999999E-2</v>
@@ -691,10 +711,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -707,11 +727,11 @@
       <c r="D10" s="2">
         <v>1.86</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G10" s="2">
         <v>-2.4E-2</v>
@@ -723,10 +743,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -739,11 +759,11 @@
       <c r="D11" s="2">
         <v>1.95</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>11</v>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G11" s="2">
         <v>1.0999999999999999E-2</v>
@@ -755,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -771,11 +791,11 @@
       <c r="D12" s="2">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>11</v>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G12" s="2">
         <v>5.0000000000000001E-3</v>
@@ -787,10 +807,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -803,11 +823,11 @@
       <c r="D13" s="2">
         <v>2.16</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>11</v>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G13" s="2">
         <v>-8.0000000000000002E-3</v>
@@ -819,10 +839,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -835,11 +855,11 @@
       <c r="D14" s="2">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="2">
         <v>1.7000000000000001E-2</v>
@@ -851,10 +871,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -867,11 +887,11 @@
       <c r="D15" s="2">
         <v>2.35</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>11</v>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G15" s="2">
         <v>-2.3E-2</v>
@@ -883,10 +903,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -899,11 +919,11 @@
       <c r="D16" s="2">
         <v>2.4500000000000002</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>11</v>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G16" s="2">
         <v>-5.8000000000000003E-2</v>
@@ -915,10 +935,10 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -931,11 +951,11 @@
       <c r="D17" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>11</v>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G17" s="2">
         <v>4.0000000000000001E-3</v>
@@ -947,10 +967,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -963,11 +983,11 @@
       <c r="D18" s="2">
         <v>2.64</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>11</v>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G18" s="2">
         <v>1.7999999999999999E-2</v>
@@ -979,10 +999,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -995,11 +1015,11 @@
       <c r="D19" s="2">
         <v>2.72</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>11</v>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G19" s="2">
         <v>-8.5000000000000006E-2</v>
@@ -1011,10 +1031,10 @@
         <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1027,11 +1047,11 @@
       <c r="D20" s="2">
         <v>2.8</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>11</v>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G20" s="2">
         <v>-1E-3</v>
@@ -1043,10 +1063,10 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1059,11 +1079,11 @@
       <c r="D21" s="2">
         <v>2.88</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>11</v>
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G21" s="2">
         <v>-2.1000000000000001E-2</v>
@@ -1075,10 +1095,10 @@
         <v>1</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1091,11 +1111,11 @@
       <c r="D22" s="2">
         <v>2.96</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>11</v>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G22" s="2">
         <v>-2E-3</v>
@@ -1107,10 +1127,10 @@
         <v>1</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1123,11 +1143,11 @@
       <c r="D23" s="2">
         <v>3.03</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>11</v>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G23" s="2">
         <v>0.03</v>
@@ -1139,10 +1159,10 @@
         <v>1</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1155,11 +1175,11 @@
       <c r="D24" s="2">
         <v>3.09</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>11</v>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G24" s="2">
         <v>-1.9E-2</v>
@@ -1171,10 +1191,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1187,11 +1207,11 @@
       <c r="D25" s="2">
         <v>3.15</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>11</v>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G25" s="2">
         <v>-6.9000000000000006E-2</v>
@@ -1203,10 +1223,10 @@
         <v>1</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1219,11 +1239,11 @@
       <c r="D26" s="2">
         <v>3.2</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>11</v>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G26" s="2">
         <v>1.4E-2</v>
@@ -1235,10 +1255,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1251,11 +1271,11 @@
       <c r="D27" s="2">
         <v>3.26</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>11</v>
+      <c r="E27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G27" s="2">
         <v>4.2999999999999997E-2</v>
@@ -1267,10 +1287,10 @@
         <v>1</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1283,11 +1303,11 @@
       <c r="D28" s="2">
         <v>3.29</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>11</v>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G28" s="2">
         <v>-4.7E-2</v>
@@ -1299,10 +1319,10 @@
         <v>1</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1315,11 +1335,11 @@
       <c r="D29" s="2">
         <v>3.33</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>11</v>
+      <c r="E29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G29" s="2">
         <v>-2.9000000000000001E-2</v>
@@ -1331,10 +1351,10 @@
         <v>1</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1347,11 +1367,11 @@
       <c r="D30" s="2">
         <v>3.36</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>11</v>
+      <c r="E30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G30" s="2">
         <v>5.0000000000000001E-3</v>
@@ -1363,10 +1383,10 @@
         <v>1</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1379,11 +1399,11 @@
       <c r="D31" s="2">
         <v>3.38</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>11</v>
+      <c r="E31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G31" s="2">
         <v>-8.2000000000000003E-2</v>
@@ -1395,10 +1415,10 @@
         <v>1</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1411,11 +1431,11 @@
       <c r="D32" s="2">
         <v>3.4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>11</v>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G32" s="2">
         <v>-0.122</v>
@@ -1427,10 +1447,10 @@
         <v>1</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1443,11 +1463,11 @@
       <c r="D33" s="2">
         <v>3.43</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>11</v>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G33" s="2">
         <v>-2.4E-2</v>
@@ -1459,10 +1479,10 @@
         <v>1</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1475,11 +1495,11 @@
       <c r="D34" s="2">
         <v>3.71</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>11</v>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G34" s="2">
         <v>0.10199999999999999</v>
@@ -1491,10 +1511,10 @@
         <v>2</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1507,11 +1527,11 @@
       <c r="D35" s="2">
         <v>4.03</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>11</v>
+      <c r="E35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G35" s="2">
         <v>-8.7999999999999995E-2</v>
@@ -1523,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1539,11 +1559,11 @@
       <c r="D36" s="2">
         <v>4.3899999999999997</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>11</v>
+      <c r="E36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G36" s="2">
         <v>-4.1000000000000002E-2</v>
@@ -1555,10 +1575,10 @@
         <v>2</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1571,11 +1591,11 @@
       <c r="D37" s="2">
         <v>4.76</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>11</v>
+      <c r="E37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G37" s="2">
         <v>0.02</v>
@@ -1587,10 +1607,10 @@
         <v>2</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1603,11 +1623,11 @@
       <c r="D38" s="2">
         <v>5.14</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>11</v>
+      <c r="E38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G38" s="2">
         <v>-2.8000000000000001E-2</v>
@@ -1619,10 +1639,10 @@
         <v>2</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1635,11 +1655,11 @@
       <c r="D39" s="2">
         <v>5.52</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>11</v>
+      <c r="E39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G39" s="2">
         <v>0.05</v>
@@ -1651,10 +1671,10 @@
         <v>2</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1667,11 +1687,11 @@
       <c r="D40" s="2">
         <v>5.91</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>11</v>
+      <c r="E40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G40" s="2">
         <v>-6.0000000000000001E-3</v>
@@ -1683,10 +1703,10 @@
         <v>2</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1699,11 +1719,11 @@
       <c r="D41" s="2">
         <v>6.31</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>11</v>
+      <c r="E41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G41" s="2">
         <v>2E-3</v>
@@ -1715,10 +1735,10 @@
         <v>2</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1731,11 +1751,11 @@
       <c r="D42" s="2">
         <v>6.69</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>11</v>
+      <c r="E42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G42" s="2">
         <v>1.0999999999999999E-2</v>
@@ -1747,10 +1767,10 @@
         <v>2</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1763,11 +1783,11 @@
       <c r="D43" s="2">
         <v>7.07</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>11</v>
+      <c r="E43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G43" s="2">
         <v>2.5999999999999999E-2</v>
@@ -1779,10 +1799,10 @@
         <v>2</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1795,11 +1815,11 @@
       <c r="D44" s="2">
         <v>7.45</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>11</v>
+      <c r="E44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G44" s="2">
         <v>5.0999999999999997E-2</v>
@@ -1811,10 +1831,10 @@
         <v>2</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1827,11 +1847,11 @@
       <c r="D45" s="2">
         <v>7.83</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>11</v>
+      <c r="E45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G45" s="2">
         <v>8.9999999999999993E-3</v>
@@ -1843,10 +1863,10 @@
         <v>2</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1859,11 +1879,11 @@
       <c r="D46" s="2">
         <v>8.19</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>11</v>
+      <c r="E46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G46" s="2">
         <v>6.3E-2</v>
@@ -1875,10 +1895,10 @@
         <v>2</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1891,11 +1911,11 @@
       <c r="D47" s="2">
         <v>8.5299999999999994</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>11</v>
+      <c r="E47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G47" s="2">
         <v>-3.6999999999999998E-2</v>
@@ -1907,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1923,11 +1943,11 @@
       <c r="D48" s="2">
         <v>8.89</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>11</v>
+      <c r="E48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G48" s="2">
         <v>6.4000000000000001E-2</v>
@@ -1939,10 +1959,10 @@
         <v>2</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1955,11 +1975,11 @@
       <c r="D49" s="2">
         <v>9.23</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>11</v>
+      <c r="E49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G49" s="2">
         <v>-3.2000000000000001E-2</v>
@@ -1971,10 +1991,10 @@
         <v>2</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -1987,11 +2007,11 @@
       <c r="D50" s="2">
         <v>9.5399999999999991</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>11</v>
+      <c r="E50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G50" s="2">
         <v>-0.104</v>
@@ -2003,10 +2023,10 @@
         <v>2</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -2019,11 +2039,11 @@
       <c r="D51" s="2">
         <v>9.82</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>11</v>
+      <c r="E51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G51" s="2">
         <v>1E-3</v>
@@ -2035,10 +2055,10 @@
         <v>2</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -2051,11 +2071,11 @@
       <c r="D52" s="2">
         <v>10.08</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>11</v>
+      <c r="E52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G52" s="2">
         <v>-0.17399999999999999</v>
@@ -2067,10 +2087,10 @@
         <v>2</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -2083,11 +2103,11 @@
       <c r="D53" s="2">
         <v>10.35</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>11</v>
+      <c r="E53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G53" s="2">
         <v>4.4999999999999998E-2</v>
@@ -2099,10 +2119,10 @@
         <v>2</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -2115,11 +2135,11 @@
       <c r="D54" s="2">
         <v>10.59</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>11</v>
+      <c r="E54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G54" s="2">
         <v>-0.316</v>
@@ -2131,10 +2151,10 @@
         <v>2</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -2147,11 +2167,11 @@
       <c r="D55" s="2">
         <v>10.79</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>11</v>
+      <c r="E55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G55" s="2">
         <v>0.34799999999999998</v>
@@ -2163,10 +2183,10 @@
         <v>2</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -2179,11 +2199,11 @@
       <c r="D56" s="2">
         <v>7.58</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>11</v>
+      <c r="E56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G56" s="2">
         <v>8.9999999999999993E-3</v>
@@ -2195,10 +2215,10 @@
         <v>3</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -2211,11 +2231,11 @@
       <c r="D57" s="2">
         <v>8.3800000000000008</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>11</v>
+      <c r="E57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G57" s="2">
         <v>7.0000000000000001E-3</v>
@@ -2227,10 +2247,10 @@
         <v>3</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -2243,11 +2263,11 @@
       <c r="D58" s="2">
         <v>9.27</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>11</v>
+      <c r="E58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G58" s="2">
         <v>-0.14499999999999999</v>
@@ -2259,10 +2279,10 @@
         <v>3</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -2275,11 +2295,11 @@
       <c r="D59" s="2">
         <v>10.32</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>11</v>
+      <c r="E59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G59" s="2">
         <v>0.1</v>
@@ -2291,10 +2311,10 @@
         <v>3</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -2307,11 +2327,11 @@
       <c r="D60" s="2">
         <v>11.44</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>11</v>
+      <c r="E60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G60" s="2">
         <v>7.1999999999999995E-2</v>
@@ -2323,10 +2343,10 @@
         <v>3</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -2339,11 +2359,11 @@
       <c r="D61" s="2">
         <v>12.62</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>11</v>
+      <c r="E61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G61" s="2">
         <v>-0.105</v>
@@ -2355,10 +2375,10 @@
         <v>3</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -2371,11 +2391,11 @@
       <c r="D62" s="2">
         <v>13.78</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>11</v>
+      <c r="E62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G62" s="2">
         <v>-0.09</v>
@@ -2387,10 +2407,10 @@
         <v>3</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -2403,11 +2423,11 @@
       <c r="D63" s="2">
         <v>14.97</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>11</v>
+      <c r="E63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G63" s="2">
         <v>0.121</v>
@@ -2419,10 +2439,10 @@
         <v>3</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -2435,11 +2455,11 @@
       <c r="D64" s="2">
         <v>16.14</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>11</v>
+      <c r="E64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G64" s="2">
         <v>-3.3000000000000002E-2</v>
@@ -2451,10 +2471,10 @@
         <v>3</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -2467,11 +2487,11 @@
       <c r="D65" s="2">
         <v>17.23</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>11</v>
+      <c r="E65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G65" s="2">
         <v>-5.3999999999999999E-2</v>
@@ -2483,10 +2503,10 @@
         <v>3</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -2499,11 +2519,11 @@
       <c r="D66" s="2">
         <v>18.43</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>11</v>
+      <c r="E66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G66" s="2">
         <v>4.1000000000000002E-2</v>
@@ -2515,10 +2535,10 @@
         <v>3</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -2531,11 +2551,11 @@
       <c r="D67" s="2">
         <v>19.440000000000001</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>11</v>
+      <c r="E67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G67" s="2">
         <v>9.1999999999999998E-2</v>
@@ -2547,10 +2567,10 @@
         <v>3</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -2563,11 +2583,11 @@
       <c r="D68" s="2">
         <v>20.440000000000001</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>11</v>
+      <c r="E68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G68" s="2">
         <v>4.3999999999999997E-2</v>
@@ -2579,10 +2599,10 @@
         <v>3</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -2595,11 +2615,11 @@
       <c r="D69" s="2">
         <v>21.49</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>11</v>
+      <c r="E69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G69" s="2">
         <v>1.4E-2</v>
@@ -2611,10 +2631,10 @@
         <v>3</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -2627,11 +2647,11 @@
       <c r="D70" s="2">
         <v>22.64</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>11</v>
+      <c r="E70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G70" s="2">
         <v>1.2E-2</v>
@@ -2643,10 +2663,10 @@
         <v>3</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -2659,11 +2679,11 @@
       <c r="D71" s="2">
         <v>23.72</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>11</v>
+      <c r="E71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G71" s="2">
         <v>0.503</v>
@@ -2675,10 +2695,10 @@
         <v>3</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>38.799999999999997</v>
       </c>
@@ -2691,11 +2711,11 @@
       <c r="D72" s="2">
         <v>24.84</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>11</v>
+      <c r="E72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G72" s="2">
         <v>-0.26400000000000001</v>
@@ -2707,7 +2727,7 @@
         <v>3</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
